--- a/assets/cursos/EP/LOQ4201.xlsx
+++ b/assets/cursos/EP/LOQ4201.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2014</t>
+    <t>01/01/2021</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -79,7 +79,7 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840560 - Marco Antonio Carvalho Pereira</t>
+    <t>11079086 - Herlandí de Souza Andrade</t>
   </si>
   <si>
     <t>Programa resumido:</t>
@@ -108,19 +108,19 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>Trabalhos em grupo; palestras e aulas expositivas</t>
+    <t>Aulas expositivas e dialogadas; dinâmicas, projetos e trabalhos em grupo; exercícios individuais; e, seminários, debates e palestras</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Provas e trabalhos.</t>
+    <t>Média Aritmética dos Projetos, Trabalhos e Exercícios realizados no decorrer da disciplina, considerando as questões relativas às Competências (Conhecimento, Habilidade e Atitude) desenvolvidas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Prova única com nota maior ou igual a 5,0 (cinco)</t>
+    <t>NF = (MF + PR)/2, onde MF é a média final da avaliação e PR é uma prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
